--- a/Chain.of.Heroes/Tools/done/캐릭터/SwordWoman.xlsx
+++ b/Chain.of.Heroes/Tools/done/캐릭터/SwordWoman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA52080-9ACD-4AE1-A8DC-CE8824387EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3131A1-A46D-4FE8-B552-2974AFFFEDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="88">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -337,7 +337,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>캐릭터 해금 맵 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockMapID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitProperty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,12 +416,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -587,43 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -631,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,18 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -977,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,9 +964,10 @@
     <col min="13" max="13" width="24.375" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="23.75" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="42.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.75" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,8 +1019,11 @@
       <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -1077,8 +1045,9 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1130,8 +1099,11 @@
       <c r="Q3" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>76</v>
@@ -1183,8 +1155,11 @@
       <c r="Q4" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>10010000</v>
       </c>
@@ -1236,8 +1211,11 @@
       <c r="Q5" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>10010001</v>
       </c>
@@ -1289,8 +1267,11 @@
       <c r="Q6" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>10010002</v>
       </c>
@@ -1342,8 +1323,11 @@
       <c r="Q7" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>10010003</v>
       </c>
@@ -1395,8 +1379,11 @@
       <c r="Q8" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>10010004</v>
       </c>
@@ -1448,8 +1435,11 @@
       <c r="Q9" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>10010005</v>
       </c>
@@ -1501,8 +1491,11 @@
       <c r="Q10" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10010006</v>
       </c>
@@ -1554,8 +1547,11 @@
       <c r="Q11" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>10010007</v>
       </c>
@@ -1607,8 +1603,11 @@
       <c r="Q12" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10010008</v>
       </c>
@@ -1660,8 +1659,11 @@
       <c r="Q13" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>10010009</v>
       </c>
@@ -1713,8 +1715,11 @@
       <c r="Q14" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10010010</v>
       </c>
@@ -1766,8 +1771,11 @@
       <c r="Q15" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>10010011</v>
       </c>
@@ -1819,8 +1827,11 @@
       <c r="Q16" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>10010012</v>
       </c>
@@ -1872,8 +1883,11 @@
       <c r="Q17" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10010013</v>
       </c>
@@ -1925,8 +1939,11 @@
       <c r="Q18" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R18" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>10010014</v>
       </c>
@@ -1978,61 +1995,67 @@
       <c r="Q19" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R19" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>10010015</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="18">
         <v>16</v>
       </c>
-      <c r="E20" s="19">
-        <v>40</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="E20" s="18">
+        <v>40</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
         <v>270</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>152</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>106</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="18">
         <v>72</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="18">
         <v>1030</v>
       </c>
-      <c r="L20" s="19">
-        <v>15</v>
-      </c>
-      <c r="M20" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" s="19" t="s">
+      <c r="L20" s="18">
+        <v>15</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>10010016</v>
       </c>
@@ -2084,8 +2107,11 @@
       <c r="Q21" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>10010017</v>
       </c>
@@ -2137,8 +2163,11 @@
       <c r="Q22" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>10010018</v>
       </c>
@@ -2190,8 +2219,11 @@
       <c r="Q23" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>10010019</v>
       </c>
@@ -2243,8 +2275,11 @@
       <c r="Q24" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>10010020</v>
       </c>
@@ -2296,8 +2331,11 @@
       <c r="Q25" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>10010021</v>
       </c>
@@ -2349,8 +2387,11 @@
       <c r="Q26" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>10010022</v>
       </c>
@@ -2402,8 +2443,11 @@
       <c r="Q27" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>10010023</v>
       </c>
@@ -2455,8 +2499,11 @@
       <c r="Q28" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>10010024</v>
       </c>
@@ -2508,8 +2555,11 @@
       <c r="Q29" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>10010025</v>
       </c>
@@ -2561,8 +2611,11 @@
       <c r="Q30" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>10010026</v>
       </c>
@@ -2614,8 +2667,11 @@
       <c r="Q31" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>10010027</v>
       </c>
@@ -2667,8 +2723,11 @@
       <c r="Q32" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>10010028</v>
       </c>
@@ -2720,114 +2779,123 @@
       <c r="Q33" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21">
+      <c r="R33" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
         <v>10010029</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="18">
         <v>30</v>
       </c>
-      <c r="E34" s="21">
-        <v>40</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
+      <c r="E34" s="18">
+        <v>40</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
         <v>2110</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="18">
         <v>566</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="18">
         <v>396</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="18">
         <v>259</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="18">
         <v>2029</v>
       </c>
-      <c r="L34" s="21">
-        <v>15</v>
-      </c>
-      <c r="M34" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="N34" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P34" s="21" t="s">
+      <c r="L34" s="18">
+        <v>15</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="Q34" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="18">
+      <c r="Q34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R34" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
         <v>10010030</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="17">
         <v>31</v>
       </c>
-      <c r="E35" s="19">
-        <v>40</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
+      <c r="E35" s="17">
+        <v>40</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
         <v>2530</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>622</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="17">
         <v>435</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="17">
         <v>284</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="17">
         <v>2130</v>
       </c>
-      <c r="L35" s="19">
-        <v>15</v>
-      </c>
-      <c r="M35" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" s="19" t="s">
+      <c r="L35" s="17">
+        <v>15</v>
+      </c>
+      <c r="M35" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="Q35" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R35" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>10010031</v>
       </c>
@@ -2879,8 +2947,11 @@
       <c r="Q36" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>10010032</v>
       </c>
@@ -2932,8 +3003,11 @@
       <c r="Q37" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>10010033</v>
       </c>
@@ -2985,8 +3059,11 @@
       <c r="Q38" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>10010034</v>
       </c>
@@ -3038,8 +3115,11 @@
       <c r="Q39" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>10010035</v>
       </c>
@@ -3091,8 +3171,11 @@
       <c r="Q40" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>10010036</v>
       </c>
@@ -3144,8 +3227,11 @@
       <c r="Q41" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>10010037</v>
       </c>
@@ -3197,8 +3283,11 @@
       <c r="Q42" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>10010038</v>
       </c>
@@ -3250,8 +3339,11 @@
       <c r="Q43" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>10010039</v>
       </c>
@@ -3302,6 +3394,9 @@
       </c>
       <c r="Q44" s="17" t="s">
         <v>83</v>
+      </c>
+      <c r="R44" s="17">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
